--- a/public/assets/tableau.xlsx
+++ b/public/assets/tableau.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/study/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Théo mj\Desktop\BTS\SLAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1D77CED-A440-4946-A2CE-FFF66A8A5742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A01D0E-C43E-4219-BB14-D3D20E4C7F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>NOM et prénom : Mudryk--Jardin Théo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Centre de formation : IPSSI</t>
@@ -135,28 +132,7 @@
 </t>
   </si>
   <si>
-    <t>AP1 Développement d'un site web pour notre entreprise virtuelle en html et css .</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Configuration du GLPI un outil open-source de gestion des services informatiques (ITSM)</t>
-  </si>
-  <si>
-    <t>Configuration du VirtualBox un logiciel de virtualisation open-source développé par Oracle, permettant d'exécuter plusieurs systèmes d'exploitation en parallèle sur un même ordinateur.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dev d'un jeu " Guess the capital " en JavaScript. </t>
-  </si>
-  <si>
-    <t>Dev d'un site de météo en JavaScript.</t>
-  </si>
-  <si>
-    <t>Dev d'une application de gestion de bibliothèque en php .</t>
-  </si>
-  <si>
-    <t>Veille technologique " L'ia au sein de la médecine et des cancers "</t>
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
@@ -170,6 +146,38 @@
   <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
+  <si>
+    <t xml:space="preserve">Réalisation de l'inventaire
+</t>
+  </si>
+  <si>
+    <t>N° candidat : 02444873315</t>
+  </si>
+  <si>
+    <t>Mise en place d'un serveur web apache sur linux</t>
+  </si>
+  <si>
+    <t>Développement d'un site web pour notre entreprise virtuelle en html et css.</t>
+  </si>
+  <si>
+    <t>Configuration du GLPI un outil open-source de gestion des services informatiques (ITSM)  et gestion de ticketing</t>
+  </si>
+  <si>
+    <t>mise en place des outis de veilles informationnelles</t>
+  </si>
+  <si>
+    <t>Création d'application mobile pour l'entreprise GSB</t>
+  </si>
+  <si>
+    <t>Création d'une application web pour l'entreprise GSB</t>
+  </si>
+  <si>
+    <t>10/01/25
+10/02/23</t>
+  </si>
+  <si>
+    <t>Installation et configuration  SuiteCRM</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -252,16 +260,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -421,19 +441,6 @@
       <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
-      <bottom/>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal style="thin">
         <color theme="2" tint="-0.749992370372631"/>
@@ -709,17 +716,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </left>
@@ -730,17 +726,6 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -819,12 +804,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -850,7 +850,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,7 +868,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,13 +877,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -891,106 +891,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1002,29 +1012,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1046,176 +1047,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>29883</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>14942</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>59766</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="ZoneTexte 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EE508D-2CA8-8024-3CFF-044990660A70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5401236" y="9144001"/>
-          <a:ext cx="814294" cy="500530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>27/02/2024 29/02/2024</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>440764</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>806822</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>410882</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Graphique 10" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BADD6FB-9207-9A44-BCB8-05B24C0D60B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6641352" y="8105589"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>881529</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>433293</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Graphique 12" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B19B957-627F-454E-A100-93890D3DABAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10974295" y="8128000"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1273,7 +1104,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>30/11/2023 09/01/2024</a:t>
+            <a:t>30/11/23 09/01/24</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1282,23 +1113,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>395941</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>483347</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>433293</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>849405</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>432098</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Graphique 15" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="25" name="Graphique 24" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF4811E-EF58-854A-A16A-E62EC99DE34B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C79E28-964E-E04F-9701-0461C3391532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,559 +1154,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6596529" y="9144000"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>537883</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>903941</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>410881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Graphique 16" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53588212-74A6-7E48-B452-41052BE6CBC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8157883" y="10137588"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>926352</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>455705</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Graphique 17" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB44DFEC-2C71-034A-A96B-A28ECCB8FAC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11019118" y="10182412"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>10459</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>824753</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>32872</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="ZoneTexte 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3CEF1F-DA16-CE48-923F-1E720DF350F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5381812" y="9625107"/>
-          <a:ext cx="814294" cy="500530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>07/03/2024 12/04/2024</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>398930</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>32870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>764988</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>398928</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Graphique 19" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B876D9-2479-C648-A941-F182BD7DE6B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6599518" y="9617635"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>518459</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>100106</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>884517</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>466164</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Graphique 20" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A550D7CA-E5D7-7A4D-8B17-0778DF503271}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8138459" y="9176871"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>903940</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>440764</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Graphique 21" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E70E9C-82F6-954F-B0C1-7682A055A2D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10996706" y="9151471"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>46317</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>32870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>31376</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="ZoneTexte 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC0CB87-D9BA-D34D-A56D-9BC07835BF20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5418417" y="10116670"/>
-          <a:ext cx="810559" cy="500530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>26/03/2024 04/04/2024</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>418352</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>59766</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>784410</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>425824</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Graphique 23" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777AA793-FD28-C54F-AB84-00F2830AE1EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6618940" y="10152531"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>521447</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>887505</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>416858</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Graphique 24" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C79E28-964E-E04F-9701-0461C3391532}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8141447" y="9635565"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>540870</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>40342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>906928</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>406400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Graphique 25" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C00242-F4A7-F546-8FA9-C089174DA573}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10999694" y="9625107"/>
+          <a:off x="7341347" y="9088120"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1970,7 +1249,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Configuration du DHCP protocole réseau utilisé pour attribuer automatiquement des adresses IP.</a:t>
+            <a:t>Réalisation  du portfolio</a:t>
           </a:r>
           <a:endParaRPr lang="fr-FR" sz="1200" b="1"/>
         </a:p>
@@ -1980,14 +1259,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>486508</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>899459</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>852566</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>428811</xdr:rowOff>
     </xdr:to>
@@ -2021,113 +1300,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12411636" y="8631518"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>889933</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>445433</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Graphique 28" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61CA8FB-44E6-E84C-912A-80DB2BDAA5C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10985500" y="8643938"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>55562</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>810558</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>421620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Graphique 29" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADDF38BE-4D10-AD4B-93D7-3393DBAF6F14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6643688" y="8620125"/>
+          <a:off x="12455770" y="8597153"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2194,7 +1367,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>04/12/2023 04/12/2023</a:t>
+            <a:t>04/12/23 04/12/23</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2203,23 +1376,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>492125</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>488207</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>858183</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>437496</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>854265</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>433792</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Graphique 31" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="2" name="Graphique 1" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA42F1ED-9EA1-A54B-A3D0-6FE8729C60C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A36C2EC-7A6F-DD41-978A-601896AB72F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,113 +1417,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9532938" y="9144001"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>491067</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>84665</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>857125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>450723</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Graphique 32" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F5A2D5-0D65-4241-97F4-98DB56B9AD6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12378267" y="8161865"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>874058</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>433792</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A36C2EC-7A6F-DD41-978A-601896AB72F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13817600" y="10684934"/>
+          <a:off x="12442701" y="11626383"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2364,13 +1431,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>24403</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>41835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9462</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>34365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2417,7 +1484,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>20/04/2021 Maintenant</a:t>
+            <a:t>20/04/24 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2428,13 +1495,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>806823</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>496795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2490,121 +1557,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>496957</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>55217</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>863015</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>421275</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Graphique 5" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F97225-7F97-8249-816E-35EBB2852C7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6699711" y="13491449"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>496956</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>92029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>863014</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>458087</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Graphique 6" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8704D2A2-69A2-3A4A-9DBA-6547AB00CFC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8116956" y="13528261"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>496957</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>92029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>863015</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>458087</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2647,70 +1608,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>441739</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>92029</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>807797</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>458087</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Graphique 11" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B729927-BFFE-FE4B-81A1-B59086788EE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13730725" y="13528261"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4331</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>63879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>811154</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>45311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2764,176 +1672,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>478550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>110435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>844608</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>476493</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Graphique 33" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439DCB40-046E-4B4C-9469-F892E041D0DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6681304" y="14062029"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>478551</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>844609</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>494898</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Graphique 34" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10ECBEE9-5D53-8D44-940C-417E1FF803BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8098551" y="14080434"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>441740</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>73623</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>807798</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>439681</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Graphique 36" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C54E8D-CFE8-CA46-B176-1F3EA9020D88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13730726" y="14025217"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>806823</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>496795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2995,100 +1744,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>358393</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152957</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>562084</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>367355</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAF23E6-EB62-AD34-C215-F0081CB10F87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12244963" y="1690602"/>
-          <a:ext cx="203691" cy="214398"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>573569</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3161A6AE-D3BE-D6A5-EBB7-206175AED7CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13538200" y="1612900"/>
-          <a:ext cx="344969" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3146,117 +1801,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>07/12/2023 07/12/2023</a:t>
+            <a:t>07/12/23 07/12/23</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>785158</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>442258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Graphique 48" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29FDDCA-C3B8-A349-93DF-2D51DB6F55FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6616700" y="9652000"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>861358</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>442258</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Graphique 49" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069739DD-54D2-F744-998F-977622C87927}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10960100" y="9652000"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3312,89 +1861,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5367617</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>7470</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>472758</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>806076</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="ZoneTexte 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAAE6FA-BAE8-6C41-B291-E57ACE9105BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5367617" y="10091270"/>
-          <a:ext cx="810559" cy="411630"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>12/11/2023 12/11/2023</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>772458</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>429558</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838816</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>442259</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Graphique 52" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="40" name="Graphique 31" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0093BC3F-5A84-0F41-9325-755E0842497A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D29BA9-725D-4A37-9C15-ADED07EEEFD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,7 +1904,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6604000" y="10147300"/>
+          <a:off x="8610918" y="14851381"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3432,22 +1917,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>835958</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>454958</xdr:rowOff>
+      <xdr:colOff>846118</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>434638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Graphique 53" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="41" name="Graphique 31" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C2C832-F222-A24B-BAFD-1E5C140D1BF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE6F761-E270-4086-8048-1C9E34DE2E68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +1957,431 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10934700" y="10172700"/>
+          <a:off x="9898380" y="14340840"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>823258</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>449878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphique 31" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DCEF5E-0182-4E13-8A66-E38115A58951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9875520" y="14859000"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>403562</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Graphique 31" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC6B81F-0039-4897-BAC6-5B9CFE441069}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12169140" y="1691938"/>
+          <a:ext cx="213062" cy="213062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>445324</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>811382</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>445227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4D5977-85CE-4A70-8175-F25024D3FEDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6016830" y="12647221"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>425533</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>791591</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>455122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B11375A-D5AF-4ADD-8939-C2B42EE9D096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5997039" y="9124207"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>435429</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>59377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>801487</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>425435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096845DC-70E0-46C7-9ABE-6875BB66588E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6006935" y="13132130"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>455221</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>79169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>821279</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>445227</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D492B-6759-46DC-858F-90DBB06524A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9856520" y="13151922"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>445324</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>59376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>811382</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>425434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C23A96A-14EC-47BB-B74A-3C7A5F94A1DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8570025" y="8085116"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>427893</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>793951</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>436396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9884CCC9-CC2A-424F-8E23-ED712797B448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6008078" y="15603415"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3485,22 +2394,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>480646</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>861358</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>442258</xdr:rowOff>
+      <xdr:colOff>846704</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>424673</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Graphique 54" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="10" name="Graphique 1" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB04E42-B4E2-7041-9BEB-DEFFAC66007F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D892490-E537-47DB-ADE0-BC926C9E6776}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3525,7 +2434,219 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12382500" y="10160000"/>
+          <a:off x="11172092" y="11113477"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468922</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>93784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>834980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>459842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FE64ED-F7DB-47B1-93CC-D4A7F4A420A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11160368" y="10140461"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>468922</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>834980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>448119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB7DFE-E532-4E46-BF8A-65CB05164032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9882553" y="10128738"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>834981</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>483289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1CA10E-F56F-40C8-A0AC-C1BD3A971661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6049108" y="10163908"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>398585</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>58616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>764643</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>424674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFB641D-F178-42B3-9613-52DB542491B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7256585" y="16095785"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3828,141 +2949,141 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ84"/>
+  <dimension ref="A1:AQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.95"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="43" width="11.42578125" customWidth="1"/>
-    <col min="44" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
+    <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="43" width="11.44140625" customWidth="1"/>
+    <col min="44" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="47"/>
+      <c r="H1" s="51"/>
     </row>
-    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
     </row>
-    <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="54" t="s">
-        <v>4</v>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="58" t="s">
+        <v>30</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="59"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="18" t="s">
+    </row>
+    <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="69"/>
     </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A5" s="63" t="s">
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="65"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="B6" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="62"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -4000,17 +3121,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A8" s="58" t="s">
-        <v>24</v>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>23</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -4047,19 +3168,19 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="40" t="s">
-        <v>25</v>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>32</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>26</v>
+      <c r="B9" s="28" t="s">
+        <v>24</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="24"/>
+      <c r="H9" s="23"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -4096,17 +3217,17 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>26</v>
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>24</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -4143,17 +3264,17 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>27</v>
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>33</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="28"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="33"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -4190,17 +3311,17 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="35" t="s">
-        <v>28</v>
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>34</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="38"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -4237,17 +3358,19 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>29</v>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>35</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="38"/>
+      <c r="B13" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -4284,17 +3407,19 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>30</v>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>29</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="41">
+        <v>45750</v>
+      </c>
+      <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="26"/>
+      <c r="H14" s="15"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -4331,17 +3456,17 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="35" t="s">
-        <v>31</v>
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>36</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="33"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -4378,17 +3503,17 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="35" t="s">
-        <v>32</v>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="48" t="s">
+        <v>25</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -4425,15 +3550,17 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="35"/>
-      <c r="B17" s="39"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -4470,8 +3597,10 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B18" s="8"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -4515,15 +3644,15 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="28"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="21"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -4560,7 +3689,7 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="8"/>
       <c r="C20" s="14"/>
@@ -4605,17 +3734,15 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A21" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -4652,10 +3779,8 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>34</v>
-      </c>
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
       <c r="B22" s="8"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -4699,10 +3824,8 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>35</v>
-      </c>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
       <c r="B23" s="8"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -4746,15 +3869,17 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -4791,8 +3916,10 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A25" s="9"/>
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="B25" s="8"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -4836,8 +3963,10 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A26" s="9"/>
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="B26" s="8"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -4881,7 +4010,7 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="8"/>
       <c r="C27" s="14"/>
@@ -4926,7 +4055,7 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="8"/>
       <c r="C28" s="14"/>
@@ -4971,17 +4100,15 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="18">
-      <c r="A29" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -5018,7 +4145,7 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="8"/>
       <c r="C30" s="14"/>
@@ -5063,15 +4190,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -5108,15 +4235,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="15"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -5153,282 +4280,56 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A33" s="9"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-    </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-    </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-    </row>
-    <row r="37" spans="1:43" s="2" customFormat="1" ht="14.1">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AC37"/>
-      <c r="AD37"/>
-      <c r="AE37"/>
-      <c r="AF37"/>
-      <c r="AG37"/>
-      <c r="AH37"/>
-      <c r="AI37"/>
-      <c r="AJ37"/>
-      <c r="AK37"/>
-      <c r="AL37"/>
-      <c r="AM37"/>
-      <c r="AN37"/>
-      <c r="AO37"/>
-      <c r="AP37"/>
-      <c r="AQ37"/>
-    </row>
-    <row r="38" spans="1:43" customFormat="1"/>
-    <row r="39" spans="1:43" customFormat="1"/>
-    <row r="40" spans="1:43" customFormat="1"/>
-    <row r="41" spans="1:43" customFormat="1"/>
-    <row r="42" spans="1:43" customFormat="1"/>
-    <row r="43" spans="1:43" customFormat="1"/>
-    <row r="44" spans="1:43" customFormat="1"/>
-    <row r="45" spans="1:43" customFormat="1"/>
-    <row r="46" spans="1:43" customFormat="1"/>
-    <row r="47" spans="1:43" customFormat="1"/>
-    <row r="48" spans="1:43" customFormat="1"/>
-    <row r="49" customFormat="1"/>
-    <row r="50" customFormat="1"/>
-    <row r="51" customFormat="1"/>
-    <row r="52" customFormat="1"/>
-    <row r="53" customFormat="1"/>
-    <row r="54" customFormat="1"/>
-    <row r="55" customFormat="1"/>
-    <row r="56" customFormat="1"/>
-    <row r="57" customFormat="1"/>
-    <row r="58" customFormat="1"/>
-    <row r="59" customFormat="1"/>
-    <row r="60" customFormat="1"/>
-    <row r="61" customFormat="1"/>
-    <row r="62" customFormat="1"/>
-    <row r="63" customFormat="1"/>
-    <row r="64" customFormat="1"/>
-    <row r="65" customFormat="1"/>
-    <row r="66" customFormat="1"/>
-    <row r="67" customFormat="1"/>
-    <row r="68" customFormat="1"/>
-    <row r="69" customFormat="1"/>
-    <row r="70" customFormat="1"/>
-    <row r="71" customFormat="1"/>
-    <row r="72" customFormat="1"/>
-    <row r="73" customFormat="1"/>
-    <row r="74" customFormat="1"/>
-    <row r="75" customFormat="1"/>
-    <row r="76" customFormat="1"/>
-    <row r="77" customFormat="1"/>
-    <row r="78" customFormat="1"/>
-    <row r="79" customFormat="1"/>
-    <row r="80" customFormat="1"/>
-    <row r="81" customFormat="1"/>
-    <row r="82" customFormat="1"/>
-    <row r="83" customFormat="1"/>
-    <row r="84" ht="12.75"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A16:H16"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
@@ -5443,8 +4344,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/assets/tableau.xlsx
+++ b/public/assets/tableau.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Théo mj\Desktop\BTS\SLAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Théo mj\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A01D0E-C43E-4219-BB14-D3D20E4C7F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2CDEE6-EB47-49AF-8D3E-9816BA5251DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>NOM et prénom : Mudryk--Jardin Théo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
     <t>Centre de formation : IPSSI</t>
@@ -132,7 +135,28 @@
 </t>
   </si>
   <si>
+    <t>AP1 Développement d'un site web pour notre entreprise virtuelle en html et css .</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Configuration du GLPI un outil open-source de gestion des services informatiques (ITSM)</t>
+  </si>
+  <si>
+    <t>Configuration du VirtualBox un logiciel de virtualisation open-source développé par Oracle, permettant d'exécuter plusieurs systèmes d'exploitation en parallèle sur un même ordinateur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dev d'un jeu " Guess the capital " en JavaScript. </t>
+  </si>
+  <si>
+    <t>Dev d'un site de météo en JavaScript.</t>
+  </si>
+  <si>
+    <t>Dev d'une application de gestion de bibliothèque en php .</t>
+  </si>
+  <si>
+    <t>Veille technologique " L'ia au sein de la médecine et des cancers "</t>
   </si>
   <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
@@ -147,36 +171,7 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t xml:space="preserve">Réalisation de l'inventaire
-</t>
-  </si>
-  <si>
-    <t>N° candidat : 02444873315</t>
-  </si>
-  <si>
-    <t>Mise en place d'un serveur web apache sur linux</t>
-  </si>
-  <si>
-    <t>Développement d'un site web pour notre entreprise virtuelle en html et css.</t>
-  </si>
-  <si>
-    <t>Configuration du GLPI un outil open-source de gestion des services informatiques (ITSM)  et gestion de ticketing</t>
-  </si>
-  <si>
-    <t>mise en place des outis de veilles informationnelles</t>
-  </si>
-  <si>
-    <t>Création d'application mobile pour l'entreprise GSB</t>
-  </si>
-  <si>
-    <t>Création d'une application web pour l'entreprise GSB</t>
-  </si>
-  <si>
-    <t>10/01/25
-10/02/23</t>
-  </si>
-  <si>
-    <t>Installation et configuration  SuiteCRM</t>
+    <t>Mise en place d'un serveru web avec apache et php sur linux</t>
   </si>
 </sst>
 </file>
@@ -186,7 +181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -260,28 +255,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -441,6 +424,19 @@
       <top style="medium">
         <color theme="2" tint="-0.749992370372631"/>
       </top>
+      <bottom/>
+      <diagonal style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal style="thin">
         <color theme="2" tint="-0.749992370372631"/>
@@ -708,24 +704,24 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
+      <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
+      <left/>
       <right style="thin">
+        <color theme="2" tint="-0.749992370372631"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,14 +762,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
+      <left style="medium">
+        <color theme="2" tint="-0.749992370372631"/>
       </left>
       <right style="thin">
-        <color theme="1"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color theme="2" tint="-0.749992370372631"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -785,46 +781,18 @@
       <right style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color theme="2" tint="-0.749992370372631"/>
       </bottom>
       <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -850,7 +818,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -868,7 +836,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,13 +845,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -891,36 +859,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -930,101 +907,82 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1050,6 +1008,176 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
+      <xdr:colOff>29883</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>14942</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59766</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EE508D-2CA8-8024-3CFF-044990660A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5401236" y="9144001"/>
+          <a:ext cx="814294" cy="500530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000"/>
+            <a:t>27/02/2024 29/02/2024</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>440764</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>806822</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>410882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Graphique 10" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BADD6FB-9207-9A44-BCB8-05B24C0D60B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6641352" y="8105589"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>881529</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>433293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Graphique 12" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B19B957-627F-454E-A100-93890D3DABAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10974295" y="8128000"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>37353</xdr:rowOff>
@@ -1058,7 +1186,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>7471</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>29883</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1104,7 +1232,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>30/11/23 09/01/24</a:t>
+            <a:t>30/11/2023 09/01/2024</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1113,23 +1241,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>483347</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66040</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>395941</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>849405</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>432098</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>433293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Graphique 24" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="16" name="Graphique 15" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C79E28-964E-E04F-9701-0461C3391532}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF4811E-EF58-854A-A16A-E62EC99DE34B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,7 +1282,113 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7341347" y="9088120"/>
+          <a:off x="6596529" y="9144000"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>903941</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>410881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Graphique 16" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53588212-74A6-7E48-B452-41052BE6CBC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8157883" y="10137588"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>926352</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>455705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Graphique 17" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB44DFEC-2C71-034A-A96B-A28ECCB8FAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11019118" y="10182412"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1166,26 +1400,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>10459</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5356412</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>824753</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32872</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="ZoneTexte 26">
+        <xdr:cNvPr id="19" name="ZoneTexte 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBAD48DD-A092-2F4D-77DD-6BA7A05CBA5C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C9C00242-F4A7-F546-8FA9-C089174DA573}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B3CEF1F-DA16-CE48-923F-1E720DF350F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,8 +1424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8582211"/>
-          <a:ext cx="5356412" cy="485589"/>
+          <a:off x="5381812" y="9625107"/>
+          <a:ext cx="814294" cy="500530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1222,36 +1453,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
           <a:r>
-            <a:rPr lang="fr-FR" sz="1200" b="1" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Réalisation  du portfolio</a:t>
+            <a:rPr lang="fr-FR" sz="1000"/>
+            <a:t>07/03/2024 12/04/2024</a:t>
           </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1259,23 +1464,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>486508</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>398930</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>852566</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>428811</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>764988</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>398928</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Graphique 27" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="20" name="Graphique 19" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AFB592-8C92-5543-93DB-F4539EE8F309}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B876D9-2479-C648-A941-F182BD7DE6B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1505,113 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12455770" y="8597153"/>
+          <a:off x="6599518" y="9617635"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518459</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>884517</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>466164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Graphique 20" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A550D7CA-E5D7-7A4D-8B17-0778DF503271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8138459" y="9176871"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>903940</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>440764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Graphique 21" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E70E9C-82F6-954F-B0C1-7682A055A2D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10996706" y="9151471"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1313,22 +1624,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4202</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1867</xdr:rowOff>
+      <xdr:colOff>46317</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>32870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>814761</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>502397</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31376</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="ZoneTexte 30">
+        <xdr:cNvPr id="23" name="ZoneTexte 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AEA5F9B-BDDD-B341-BD64-5B204B579128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDC0CB87-D9BA-D34D-A56D-9BC07835BF20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1647,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5377890" y="8566430"/>
+          <a:off x="5418417" y="10116670"/>
           <a:ext cx="810559" cy="500530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1367,7 +1678,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>04/12/23 04/12/23</a:t>
+            <a:t>26/03/2024 04/04/2024</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1376,23 +1687,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>488207</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>67734</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>418352</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>854265</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>433792</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>784410</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>425824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Graphique 1" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="24" name="Graphique 23" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A36C2EC-7A6F-DD41-978A-601896AB72F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777AA793-FD28-C54F-AB84-00F2830AE1EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1728,325 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12442701" y="11626383"/>
+          <a:off x="6618940" y="10152531"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>521447</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>887505</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>416858</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Graphique 24" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47C79E28-964E-E04F-9701-0461C3391532}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8141447" y="9635565"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>540870</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>906928</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>406400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Graphique 25" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C00242-F4A7-F546-8FA9-C089174DA573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10999694" y="9625107"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>899459</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>366058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Graphique 27" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AFB592-8C92-5543-93DB-F4539EE8F309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12411636" y="8631518"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>858183</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>437496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Graphique 31" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA42F1ED-9EA1-A54B-A3D0-6FE8729C60C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9532938" y="9144001"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>491067</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84665</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>857125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>450723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Graphique 32" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F5A2D5-0D65-4241-97F4-98DB56B9AD6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12378267" y="8161865"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>874058</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>433792</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphique 1" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A36C2EC-7A6F-DD41-978A-601896AB72F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13817600" y="10684934"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1431,13 +2060,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>24403</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>41835</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9462</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>34365</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1484,7 +2113,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>20/04/24 </a:t>
+            <a:t>20/04/2021 Maintenant</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1495,13 +2124,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>806823</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>496795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1557,15 +2186,121 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>863015</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>421275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphique 5" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F97225-7F97-8249-816E-35EBB2852C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6699711" y="13491449"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>863014</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>458087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Graphique 6" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8704D2A2-69A2-3A4A-9DBA-6547AB00CFC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8116956" y="13528261"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>496957</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>92029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>863015</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>458087</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1608,17 +2343,70 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441739</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>807797</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>458087</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Graphique 11" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B729927-BFFE-FE4B-81A1-B59086788EE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13730725" y="13528261"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4331</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>63879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>811154</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>45311</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1672,17 +2460,176 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>478550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844608</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>476493</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Graphique 33" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439DCB40-046E-4B4C-9469-F892E041D0DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6681304" y="14062029"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>478551</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>844609</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>494898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Graphique 34" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10ECBEE9-5D53-8D44-940C-417E1FF803BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8098551" y="14080434"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441740</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>73623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>807798</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>439681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Graphique 36" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C54E8D-CFE8-CA46-B176-1F3EA9020D88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13730726" y="14025217"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>806823</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>496795</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1744,17 +2691,111 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358393</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>562084</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>367355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAF23E6-EB62-AD34-C215-F0081CB10F87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12244963" y="1690602"/>
+          <a:ext cx="203691" cy="214398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>573569</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3161A6AE-D3BE-D6A5-EBB7-206175AED7CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13538200" y="1612900"/>
+          <a:ext cx="344969" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5367617</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>20170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>806076</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1801,7 +2842,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-FR" sz="1000"/>
-            <a:t>07/12/23 07/12/23</a:t>
+            <a:t>07/12/2023 07/12/2023</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1810,23 +2851,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>861358</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>454958</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>785158</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>442258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Graphique 50" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="49" name="Graphique 48" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0629AF0-3F68-2A43-AC2B-3426354FEEEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29FDDCA-C3B8-A349-93DF-2D51DB6F55FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1851,60 +2892,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12382500" y="9664700"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>472758</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>838816</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>442259</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Graphique 31" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D29BA9-725D-4A37-9C15-ADED07EEEFD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8610918" y="14851381"/>
+          <a:off x="6616700" y="9652000"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1917,22 +2905,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>846118</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>434638</xdr:rowOff>
+      <xdr:colOff>861358</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>442258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Graphique 31" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="50" name="Graphique 49" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE6F761-E270-4086-8048-1C9E34DE2E68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069739DD-54D2-F744-998F-977622C87927}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +2945,124 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9898380" y="14340840"/>
+          <a:off x="10960100" y="9652000"/>
+          <a:ext cx="366058" cy="366058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5367617</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>806076</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="ZoneTexte 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAAE6FA-BAE8-6C41-B291-E57ACE9105BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5367617" y="10091270"/>
+          <a:ext cx="810559" cy="411630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000"/>
+            <a:t>12/11/2023 12/11/2023</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>772458</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>429558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Graphique 52" descr="Fermer avec un remplissage uni">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0093BC3F-5A84-0F41-9325-755E0842497A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6604000" y="10147300"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1970,22 +3075,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>823258</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>449878</xdr:rowOff>
+      <xdr:colOff>835958</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>454958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Graphique 31" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="54" name="Graphique 53" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DCEF5E-0182-4E13-8A66-E38115A58951}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C2C832-F222-A24B-BAFD-1E5C140D1BF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +3115,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9875520" y="14859000"/>
+          <a:off x="10934700" y="10172700"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2022,23 +3127,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>167938</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>403562</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>861358</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>442258</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Graphique 31" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="55" name="Graphique 54" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC6B81F-0039-4897-BAC6-5B9CFE441069}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB04E42-B4E2-7041-9BEB-DEFFAC66007F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,166 +3168,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12169140" y="1691938"/>
-          <a:ext cx="213062" cy="213062"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>445324</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>79169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>811382</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>445227</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4D5977-85CE-4A70-8175-F25024D3FEDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6016830" y="12647221"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>425533</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>89064</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>791591</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>455122</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B11375A-D5AF-4ADD-8939-C2B42EE9D096}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5997039" y="9124207"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>435429</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>59377</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>801487</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>425435</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096845DC-70E0-46C7-9ABE-6875BB66588E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6006935" y="13132130"/>
+          <a:off x="12382500" y="10160000"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2235,22 +3181,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>455221</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>79169</xdr:rowOff>
+      <xdr:colOff>422018</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>60279</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>821279</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>445227</xdr:rowOff>
+      <xdr:colOff>788076</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>426337</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Graphique 1" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="9" name="Graphique 33" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634D492B-6759-46DC-858F-90DBB06524A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B224F82C-2E81-47ED-9901-C834B2C804BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,113 +3221,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9856520" y="13151922"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>445324</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>59376</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>811382</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>425434</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C23A96A-14EC-47BB-B74A-3C7A5F94A1DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8570025" y="8085116"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>427893</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>70338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>793951</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>436396</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9884CCC9-CC2A-424F-8E23-ED712797B448}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6008078" y="15603415"/>
+          <a:off x="9838161" y="17572672"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2394,22 +3234,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>480646</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>846704</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>424673</xdr:rowOff>
+      <xdr:colOff>842308</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>488522</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Graphique 1" descr="Fermer avec un remplissage uni">
+        <xdr:cNvPr id="38" name="Graphique 33" descr="Fermer avec un remplissage uni">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D892490-E537-47DB-ADE0-BC926C9E6776}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64D9D5C4-8931-4522-B358-0C4485051620}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2434,219 +3274,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11172092" y="11113477"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>468922</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>93784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>834980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>459842</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FE64ED-F7DB-47B1-93CC-D4A7F4A420A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11160368" y="10140461"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>468922</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>82061</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>834980</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>448119</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB7DFE-E532-4E46-BF8A-65CB05164032}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9882553" y="10128738"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>468923</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>834981</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>483289</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1CA10E-F56F-40C8-A0AC-C1BD3A971661}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6049108" y="10163908"/>
-          <a:ext cx="366058" cy="366058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>398585</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>764643</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>424674</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Graphique 1" descr="Fermer avec un remplissage uni">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFB641D-F178-42B3-9613-52DB542491B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7256585" y="16095785"/>
+          <a:off x="11171464" y="17634857"/>
           <a:ext cx="366058" cy="366058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2949,10 +3577,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ78"/>
+  <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2965,125 +3593,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="51"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="58" t="s">
-        <v>30</v>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="54" t="s">
+        <v>4</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="59"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="55"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="12" t="s">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="G4" s="13" t="s">
+        <v>7</v>
+      </c>
       <c r="H4" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
-        <v>8</v>
+      <c r="A5" s="63" t="s">
+        <v>9</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="69"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.89999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -3122,16 +3750,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
-        <v>23</v>
+      <c r="A8" s="58" t="s">
+        <v>24</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="64"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -3169,18 +3797,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>32</v>
+      <c r="A9" s="38" t="s">
+        <v>25</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>24</v>
+      <c r="B9" s="29" t="s">
+        <v>26</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="23"/>
+      <c r="H9" s="24"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -3218,16 +3846,16 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>24</v>
+      <c r="A10" s="34" t="s">
+        <v>27</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="36"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -3265,16 +3893,16 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>33</v>
+      <c r="A11" s="34" t="s">
+        <v>28</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="33"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="36"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -3312,16 +3940,16 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>34</v>
+      <c r="A12" s="41" t="s">
+        <v>29</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="36"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -3358,19 +3986,17 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>35</v>
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>30</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="26"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -3407,19 +4033,17 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>29</v>
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>31</v>
       </c>
-      <c r="B14" s="41">
-        <v>45750</v>
-      </c>
+      <c r="B14" s="37"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -3457,16 +4081,16 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>36</v>
+      <c r="A15" s="34" t="s">
+        <v>32</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="33"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -3503,17 +4127,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50"/>
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -3551,9 +4173,7 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="A17" s="39"/>
       <c r="B17" s="8"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -3598,16 +4218,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="28"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="36"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -3644,8 +4262,8 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
       <c r="B19" s="8"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -3689,15 +4307,17 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -3735,7 +4355,9 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="B21" s="8"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -3780,7 +4402,9 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B22" s="8"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -3824,8 +4448,8 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -3869,17 +4493,15 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -3917,9 +4539,7 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A25" s="9"/>
       <c r="B25" s="8"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -3964,9 +4584,7 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>38</v>
-      </c>
+      <c r="A26" s="9"/>
       <c r="B26" s="8"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -4055,15 +4673,17 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -4101,7 +4721,9 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="B29" s="8"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -4190,15 +4812,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -4235,15 +4857,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -4280,22 +4902,198 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+      <c r="AL33"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+      <c r="AO33"/>
+      <c r="AP33"/>
+      <c r="AQ33"/>
+    </row>
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+      <c r="AL34"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+      <c r="AO34"/>
+      <c r="AP34"/>
+      <c r="AQ34"/>
+    </row>
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="39.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+    </row>
+    <row r="36" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+    </row>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -4326,10 +5124,14 @@
     <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:H24"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A20:H20"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
@@ -4344,8 +5146,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>